--- a/Doc/130.1K2490GD2route_grid　経路計算計画1.xlsx
+++ b/Doc/130.1K2490GD2route_grid　経路計算計画1.xlsx
@@ -5,22 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\四年前期\研究2電波伝搬シミュレーション\発表\日報\2021年12月06日\経路計算\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Circling-Drones\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3678EEE7-0E05-4E2C-B5CD-BBE8DBD9BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C868A9-5ED5-404F-B1D8-743949568298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="2955" windowWidth="23505" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="130.1K2490GD2route_grid　経路計算計画" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -75,7 +77,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +237,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +439,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -544,6 +561,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -673,7 +705,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +713,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -739,6 +774,256 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>170068</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7906F256-3348-48B8-9BA2-B4CB4A561573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3585883" y="1075764"/>
+          <a:ext cx="6154009" cy="1409897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>649663</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEFADCAF-6E4F-42C5-8840-0C402A41EB9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6914029" y="2610970"/>
+          <a:ext cx="6039693" cy="1445559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215994</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>18688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD381709-2D81-4AD6-A637-601B1F2C86AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="347383" y="3776383"/>
+          <a:ext cx="6020640" cy="1419423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>140360</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6B11682-9F09-48B9-9D60-9DC3DA9D4508}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958353" y="5446059"/>
+          <a:ext cx="6068272" cy="1400370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>393058</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>82565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB9DD3F-BF8E-4D36-84A7-E91CD2B598F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4549589" y="7115736"/>
+          <a:ext cx="6096851" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1040,13 +1325,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="20" max="20" width="1.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>20</v>
       </c>
@@ -1056,12 +1342,9 @@
       <c r="C1">
         <v>10</v>
       </c>
-      <c r="E1">
-        <v>8.6602540379999997</v>
-      </c>
       <c r="F1">
         <f>L4</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1070,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1083,34 +1366,34 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <f>SQRT((A2-A1)^2+(B2-B1)^2+(C2-C1)^2)</f>
         <v>8.6602540378443873</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F2" s="3">
         <f>IF(F1&lt;E2,"終わり",F1-E2)</f>
-        <v>終わり</v>
-      </c>
-      <c r="H2">
-        <f>IF(F2="終わり",F1/E1*(A2-A1)+A1,"まだ")</f>
-        <v>24.618802153434011</v>
-      </c>
-      <c r="I2">
-        <f>IF(F2="終わり",F1/E1*(B2-B1)+B1,"まだ")</f>
-        <v>225.38119784656598</v>
-      </c>
-      <c r="J2">
-        <f>IF(F2="終わり",F1/E1*(C2-C1)+C1,"まだ")</f>
-        <v>14.618802153434013</v>
+        <v>1.3397459621556127</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(F2="終わり",F1/E2*(A2-A1)+A1,"まだ")</f>
+        <v>まだ</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(F2="終わり",F1/E2*(B2-B1)+B1,"まだ")</f>
+        <v>まだ</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(F2="終わり",F1/E2*(C2-C1)+C1,"まだ")</f>
+        <v>まだ</v>
       </c>
       <c r="L2" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>30</v>
       </c>
@@ -1124,24 +1407,24 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E56" si="0">SQRT((A3-A2)^2+(B3-B2)^2+(C3-C2)^2)</f>
+        <f>SQRT((A3-A2)^2+(B3-B2)^2+(C3-C2)^2)</f>
         <v>8.6602540378443873</v>
       </c>
-      <c r="F3" t="e">
+      <c r="F3" t="str">
         <f>IF(F2&lt;E3,"終わり",F2-E3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" t="e">
-        <f>IF(F3="終わり",F2/E2*(A3-A2)+A2,"まだ")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I3" t="e">
-        <f t="shared" ref="I3:I56" si="1">IF(F3="終わり",F2/E2*(B3-B2)+B2,"まだ")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="J3" t="e">
-        <f t="shared" ref="J3:J56" si="2">IF(F3="終わり",F2/E2*(C3-C2)+C2,"まだ")</f>
-        <v>#VALUE!</v>
+        <v>終わり</v>
+      </c>
+      <c r="H3" s="3">
+        <f>IF(F3="終わり",F2/E3*(A3-A2)+A2,"まだ")</f>
+        <v>25.773502691896258</v>
+      </c>
+      <c r="I3" s="3">
+        <f>IF(F3="終わり",F2/E3*(B3-B2)+B2,"まだ")</f>
+        <v>224.22649730810375</v>
+      </c>
+      <c r="J3" s="3">
+        <f>IF(F3="終わり",F2/E3*(C3-C2)+C2,"まだ")</f>
+        <v>15.773502691896256</v>
       </c>
       <c r="L3" s="2">
         <v>1</v>
@@ -1150,7 +1433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>35</v>
       </c>
@@ -1164,34 +1447,34 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E56" si="0">SQRT((A4-A3)^2+(B4-B3)^2+(C4-C3)^2)</f>
         <v>8.6602540378443873</v>
       </c>
       <c r="F4" t="e">
-        <f t="shared" ref="F3:F56" si="3">IF(F3&lt;E4,"終わり",F3-E4)</f>
+        <f t="shared" ref="F4:F56" si="1">IF(F3&lt;E4,"終わり",F3-E4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H4" t="e">
-        <f t="shared" ref="H3:H56" si="4">IF(F4="終わり",F3/E3*(A4-A3)+A3,"まだ")</f>
+        <f t="shared" ref="H4:H56" si="2">IF(F4="終わり",F3/E4*(A4-A3)+A3,"まだ")</f>
         <v>#VALUE!</v>
       </c>
       <c r="I4" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I3:I56" si="3">IF(F4="終わり",F3/E4*(B4-B3)+B3,"まだ")</f>
         <v>#VALUE!</v>
       </c>
       <c r="J4" t="e">
-        <f>IF(F4="終わり",F3/E3*(C4-C3)+C3,"まだ")</f>
+        <f t="shared" ref="J3:J56" si="4">IF(F4="終わり",F3/E4*(C4-C3)+C3,"まだ")</f>
         <v>#VALUE!</v>
       </c>
       <c r="L4" s="1">
         <f>L2*L3</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1209,23 +1492,23 @@
         <v>8.6602540378443873</v>
       </c>
       <c r="F5" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H5" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I5" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J5" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>45</v>
       </c>
@@ -1243,26 +1526,26 @@
         <v>8.6602540378443873</v>
       </c>
       <c r="F6" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I6" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="M6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1280,26 +1563,26 @@
         <v>8.6602540378443873</v>
       </c>
       <c r="F7" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H7" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I7" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J7" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>55</v>
       </c>
@@ -1317,26 +1600,26 @@
         <v>8.6602540378443873</v>
       </c>
       <c r="F8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H8" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I8" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>60</v>
       </c>
@@ -1354,26 +1637,26 @@
         <v>8.6602540378443873</v>
       </c>
       <c r="F9" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H9" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I9" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J9" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="M9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>65</v>
       </c>
@@ -1391,23 +1674,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H10" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I10" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J10" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>70</v>
       </c>
@@ -1425,26 +1708,26 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F11" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H11" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I11" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J11" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>75</v>
       </c>
@@ -1462,26 +1745,26 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F12" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H12" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I12" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J12" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>80</v>
       </c>
@@ -1499,26 +1782,26 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F13" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H13" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J13" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="L13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>85</v>
       </c>
@@ -1536,23 +1819,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F14" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H14" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J14" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>90</v>
       </c>
@@ -1570,23 +1853,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F15" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H15" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I15" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J15" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>95</v>
       </c>
@@ -1604,23 +1887,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F16" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H16" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I16" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J16" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>100</v>
       </c>
@@ -1638,23 +1921,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F17" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I17" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J17" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>105</v>
       </c>
@@ -1672,23 +1955,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F18" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H18" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I18" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>110</v>
       </c>
@@ -1706,23 +1989,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F19" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H19" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J19" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>115</v>
       </c>
@@ -1740,23 +2023,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F20" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H20" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I20" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J20" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>120</v>
       </c>
@@ -1774,23 +2057,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F21" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J21" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>125</v>
       </c>
@@ -1808,23 +2091,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F22" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H22" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I22" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J22" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>130</v>
       </c>
@@ -1842,23 +2125,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F23" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H23" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I23" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J23" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>135</v>
       </c>
@@ -1876,23 +2159,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F24" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H24" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I24" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J24" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>140</v>
       </c>
@@ -1910,23 +2193,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F25" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H25" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I25" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J25" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>145</v>
       </c>
@@ -1944,23 +2227,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F26" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H26" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I26" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J26" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>150</v>
       </c>
@@ -1978,23 +2261,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F27" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H27" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I27" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J27" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>155</v>
       </c>
@@ -2012,23 +2295,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F28" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I28" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J28" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>160</v>
       </c>
@@ -2046,23 +2329,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F29" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H29" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I29" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J29" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>165</v>
       </c>
@@ -2080,23 +2363,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J30" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>170</v>
       </c>
@@ -2114,23 +2397,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F31" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H31" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J31" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>175</v>
       </c>
@@ -2148,23 +2431,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F32" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J32" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>180</v>
       </c>
@@ -2182,23 +2465,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F33" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H33" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J33" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>185</v>
       </c>
@@ -2216,23 +2499,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F34" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J34" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>190</v>
       </c>
@@ -2250,23 +2533,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F35" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H35" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J35" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>195</v>
       </c>
@@ -2284,23 +2567,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F36" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J36" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>200</v>
       </c>
@@ -2318,23 +2601,23 @@
         <v>7.0710678118654755</v>
       </c>
       <c r="F37" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H37" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J37" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>205</v>
       </c>
@@ -2352,23 +2635,23 @@
         <v>5</v>
       </c>
       <c r="F38" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J38" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>210</v>
       </c>
@@ -2386,23 +2669,23 @@
         <v>5</v>
       </c>
       <c r="F39" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H39" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J39" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>215</v>
       </c>
@@ -2420,23 +2703,23 @@
         <v>5</v>
       </c>
       <c r="F40" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I40" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J40" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>220</v>
       </c>
@@ -2454,23 +2737,23 @@
         <v>5</v>
       </c>
       <c r="F41" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H41" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I41" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J41" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>225</v>
       </c>
@@ -2488,23 +2771,23 @@
         <v>5</v>
       </c>
       <c r="F42" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H42" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I42" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J42" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>230</v>
       </c>
@@ -2522,23 +2805,23 @@
         <v>5</v>
       </c>
       <c r="F43" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H43" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J43" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>235</v>
       </c>
@@ -2556,23 +2839,23 @@
         <v>5</v>
       </c>
       <c r="F44" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H44" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I44" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J44" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>240</v>
       </c>
@@ -2590,23 +2873,23 @@
         <v>5</v>
       </c>
       <c r="F45" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H45" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I45" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J45" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>245</v>
       </c>
@@ -2624,23 +2907,23 @@
         <v>5</v>
       </c>
       <c r="F46" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H46" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J46" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>250</v>
       </c>
@@ -2658,23 +2941,23 @@
         <v>5</v>
       </c>
       <c r="F47" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H47" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J47" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>255</v>
       </c>
@@ -2692,23 +2975,23 @@
         <v>5</v>
       </c>
       <c r="F48" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H48" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I48" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J48" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>260</v>
       </c>
@@ -2726,23 +3009,23 @@
         <v>5</v>
       </c>
       <c r="F49" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H49" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J49" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>265</v>
       </c>
@@ -2760,23 +3043,23 @@
         <v>5</v>
       </c>
       <c r="F50" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H50" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I50" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J50" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>270</v>
       </c>
@@ -2794,23 +3077,23 @@
         <v>5</v>
       </c>
       <c r="F51" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H51" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J51" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>275</v>
       </c>
@@ -2828,23 +3111,23 @@
         <v>5</v>
       </c>
       <c r="F52" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H52" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J52" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>280</v>
       </c>
@@ -2862,23 +3145,23 @@
         <v>5</v>
       </c>
       <c r="F53" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H53" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J53" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>285</v>
       </c>
@@ -2896,23 +3179,23 @@
         <v>5</v>
       </c>
       <c r="F54" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H54" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I54" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J54" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>290</v>
       </c>
@@ -2930,23 +3213,23 @@
         <v>5</v>
       </c>
       <c r="F55" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H55" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J55" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>295</v>
       </c>
@@ -2964,24 +3247,29 @@
         <v>5</v>
       </c>
       <c r="F56" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H56" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="J56" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.16" right="0.11" top="0.74803149606299213" bottom="0.28000000000000003" header="0.31496062992125984" footer="0.21"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>